--- a/Школа/Классный журнал 7а.xlsx
+++ b/Школа/Классный журнал 7а.xlsx
@@ -709,7 +709,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -904,6 +904,51 @@
         </is>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>asfgaf</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>aetg</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>aetg</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>aetgtyhjt</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>ура работает</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ОЛАПЛО</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -915,7 +960,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1105,6 +1150,21 @@
       <c r="B16" t="inlineStr">
         <is>
           <t>шявргпшрв угыепрш фшурп</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>ура работает</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>16</t>
         </is>
       </c>
     </row>
